--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D248EC25-50C5-4DD8-9B1C-AC45FA27C542}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE23CB9A-FA31-413C-B834-CAE124189994}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE23CB9A-FA31-413C-B834-CAE124189994}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51357A9-BF9A-4FA9-8784-4AF3F0CFD346}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -48,24 +48,12 @@
     <t>Cash</t>
   </si>
   <si>
-    <t xml:space="preserve">   Common Stock</t>
-  </si>
-  <si>
     <t>Miscellaneous Expense</t>
   </si>
   <si>
-    <t xml:space="preserve">   Cash</t>
-  </si>
-  <si>
     <t>Supplies Expense</t>
   </si>
   <si>
-    <t xml:space="preserve">   Accounts Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Fees Earned</t>
-  </si>
-  <si>
     <t>Accounts Receivable</t>
   </si>
   <si>
@@ -75,13 +63,16 @@
     <t>Salary Expense</t>
   </si>
   <si>
-    <t xml:space="preserve">   Accounts Receivable</t>
-  </si>
-  <si>
     <t>Truck Expense</t>
   </si>
   <si>
     <t>Cash Dividends</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
   </si>
 </sst>
 </file>
@@ -100,23 +91,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -180,41 +174,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,424 +541,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>42887</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>42887</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42891</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>200</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>42888</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C10" s="4">
+        <v>250</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42894</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C12" s="4">
         <v>150</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42895</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>450</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42896</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42899</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>42891</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7">
-        <v>200</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="C18" s="4">
+        <v>600</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>500</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>42903</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>42906</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>250</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>42907</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>42910</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <v>750</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>42911</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>42892</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C30" s="4">
+        <v>175</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4">
+        <v>600</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>42915</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1600</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
-        <v>250</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>42894</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7">
-        <v>150</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>42895</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7">
-        <v>450</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>42896</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7">
-        <v>40</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>42899</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7">
-        <v>600</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>42902</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="7">
-        <v>500</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>42903</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7">
-        <v>30</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>42906</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="7">
-        <v>250</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>42907</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7">
-        <v>40</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>42910</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7">
-        <v>750</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>42911</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7">
-        <v>175</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="9">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>42913</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="7">
-        <v>600</v>
-      </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1600</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="9">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>700</v>
       </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="10">
         <v>700</v>
       </c>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51357A9-BF9A-4FA9-8784-4AF3F0CFD346}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EB7680-EFA5-4833-8742-7A5910128EC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,12 +204,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -219,11 +213,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +536,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,18 +567,18 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>10000</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="C3" s="2"/>
+      <c r="D3" s="7">
         <v>10000</v>
       </c>
     </row>
@@ -595,18 +589,18 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
+      <c r="C5" s="2"/>
+      <c r="D5" s="7">
         <v>50</v>
       </c>
     </row>
@@ -617,18 +611,18 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5">
+      <c r="C7" s="2"/>
+      <c r="D7" s="7">
         <v>150</v>
       </c>
     </row>
@@ -639,18 +633,18 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>200</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="7">
         <v>200</v>
       </c>
     </row>
@@ -661,18 +655,18 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>250</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5">
+      <c r="C11" s="2"/>
+      <c r="D11" s="7">
         <v>250</v>
       </c>
     </row>
@@ -683,18 +677,18 @@
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>150</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="C13" s="2"/>
+      <c r="D13" s="7">
         <v>150</v>
       </c>
     </row>
@@ -705,18 +699,18 @@
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>450</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="7">
         <v>450</v>
       </c>
     </row>
@@ -727,18 +721,18 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>40</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
+      <c r="C17" s="2"/>
+      <c r="D17" s="7">
         <v>40</v>
       </c>
     </row>
@@ -749,18 +743,18 @@
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>600</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
+      <c r="C19" s="2"/>
+      <c r="D19" s="7">
         <v>600</v>
       </c>
     </row>
@@ -771,18 +765,18 @@
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>500</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5">
+      <c r="C21" s="2"/>
+      <c r="D21" s="7">
         <v>500</v>
       </c>
     </row>
@@ -793,18 +787,18 @@
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>30</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5">
+      <c r="C23" s="2"/>
+      <c r="D23" s="7">
         <v>30</v>
       </c>
     </row>
@@ -815,18 +809,18 @@
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>250</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5">
+      <c r="C25" s="2"/>
+      <c r="D25" s="7">
         <v>250</v>
       </c>
     </row>
@@ -837,18 +831,18 @@
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>40</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5">
+      <c r="C27" s="2"/>
+      <c r="D27" s="7">
         <v>40</v>
       </c>
     </row>
@@ -859,18 +853,18 @@
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>750</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5">
+      <c r="C29" s="2"/>
+      <c r="D29" s="7">
         <v>750</v>
       </c>
     </row>
@@ -881,18 +875,18 @@
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>175</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5">
+      <c r="C31" s="2"/>
+      <c r="D31" s="7">
         <v>175</v>
       </c>
     </row>
@@ -903,18 +897,18 @@
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>600</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5">
+      <c r="C33" s="2"/>
+      <c r="D33" s="7">
         <v>600</v>
       </c>
     </row>
@@ -925,18 +919,18 @@
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>1600</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5">
+      <c r="C35" s="2"/>
+      <c r="D35" s="7">
         <v>1600</v>
       </c>
     </row>
@@ -947,18 +941,18 @@
       <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>700</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8">
         <v>700</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EB7680-EFA5-4833-8742-7A5910128EC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2236FF-1447-470B-9F21-704E9467E393}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -91,14 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -112,8 +104,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +122,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFEFFAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFF7FD"/>
         <bgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -136,56 +142,84 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCAE8FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCAE8FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCAE8FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCAE8FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCAE8FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FFCAE8FF"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FFCAE8FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCAE8FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCAE8FF"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FFCAE8FF"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFCAE8FF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
+        <color rgb="FFCAE8FF"/>
       </right>
-      <top style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
+        <color rgb="FFCAE8FF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,31 +227,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,6 +274,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDFF7FD"/>
+      <color rgb="FFEFFAFF"/>
+      <color rgb="FFE1A16C"/>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFFDC689"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,412 +605,412 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>10000</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>150</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>200</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>250</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>150</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>450</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>40</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>600</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>500</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="7">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>42903</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>30</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7">
+      <c r="C23" s="3"/>
+      <c r="D23" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>250</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>40</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>750</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="7">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>175</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="7">
+      <c r="C31" s="3"/>
+      <c r="D31" s="4">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>600</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="7">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>1600</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="7">
+      <c r="C35" s="3"/>
+      <c r="D35" s="4">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>700</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8">
+      <c r="C37" s="9"/>
+      <c r="D37" s="10">
         <v>700</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2236FF-1447-470B-9F21-704E9467E393}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F1AFDB-DB97-4657-B14B-BCD95E4C1C32}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,25 +142,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <left style="thin">
         <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAE8FF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color rgb="FFCAE8FF"/>
       </right>
@@ -172,101 +156,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAE8FF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,6 +185,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCAE8FF"/>
       <color rgb="FFDFF7FD"/>
       <color rgb="FFEFFAFF"/>
       <color rgb="FFE1A16C"/>
@@ -593,9 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -605,412 +513,412 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>42887</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
         <v>10000</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>42887</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>42888</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>150</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>42891</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
         <v>200</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>42892</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>250</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>42894</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>150</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>42895</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>450</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>42896</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>40</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>42899</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>600</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>42902</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
         <v>500</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>42903</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>30</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>42906</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
         <v>250</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>42907</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>40</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>42910</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>750</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="4">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>42911</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>175</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="4">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>42913</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>600</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>42915</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1600</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="4">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>42916</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>700</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4">
         <v>700</v>
       </c>
     </row>
